--- a/medicine/Psychotrope/Culture_du_raisin_chasselas_de_Moissac/Culture_du_raisin_chasselas_de_Moissac.xlsx
+++ b/medicine/Psychotrope/Culture_du_raisin_chasselas_de_Moissac/Culture_du_raisin_chasselas_de_Moissac.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La culture du raisin chasselas de Moissac est une culture traditionnelle effectuée à la main par les chasselatiers (producteur du raisin chasselas) qui a été inscrite à l'Inventaire du patrimoine culturel immatériel en France en mars 2017. Elle se situe dans le Tarn-et-Garonne. Ce raisin de table est particulièrement apprécié pour ses arômes au goût de miel, sa fraîcheur, son croquant et sa couleur (blanc avec des reflets dorés)[1],[2].
+La culture du raisin chasselas de Moissac est une culture traditionnelle effectuée à la main par les chasselatiers (producteur du raisin chasselas) qui a été inscrite à l'Inventaire du patrimoine culturel immatériel en France en mars 2017. Elle se situe dans le Tarn-et-Garonne. Ce raisin de table est particulièrement apprécié pour ses arômes au goût de miel, sa fraîcheur, son croquant et sa couleur (blanc avec des reflets dorés),.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Origines de la culture</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La vigne a été introduite à l'époque romaine dans la région du Quercy. Au Moyen Âge, on trouve des représentations de cette culture sur les tympans du cloître de l'Abbaye Saint-Pierre de Moissac (datée du milieu du VIIe siècle). 
 Selon la tradition, des vignes de Chasselas ont été importées en 1523 en France par un diplomate à la cour du sultan Suleiman II à Constantinople par le vicomte d'Auban à l'époque du roi François Ier (confère:Chasselas de Thomery).
@@ -549,16 +563,126 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">La plantation
-La plantation tout comme les autres étapes de la culture du raisin chasselas de Moissac respecte le décret de l'AOC. Le cépage planté est le chasselas blanc B. 
-Le palissage
-Le palissage est une technique viticole qui consiste à guider la vigne en attachant ses sarments avec des liens et en pliant la flèche, un sarment de l'an passé, afin d'obtenir un fruit de meilleure qualité en d'en assurer le rendement.
-Les traitements de la vigne
-La taille guyot simple ou double est une étape obligatoire de la culture du chasselas de Moissac AOP ou l'on renouvelle le bois de taille chaque année en ne gardant que la flèche et un courson (le porteur du serment de l'année suivante). Elle est effectuée avec un sécateur uniquement à la main. 
+          <t>La plantation</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plantation tout comme les autres étapes de la culture du raisin chasselas de Moissac respecte le décret de l'AOC. Le cépage planté est le chasselas blanc B. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Culture_du_raisin_chasselas_de_Moissac</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Culture_du_raisin_chasselas_de_Moissac</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Les étapes de la culture</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Le palissage</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le palissage est une technique viticole qui consiste à guider la vigne en attachant ses sarments avec des liens et en pliant la flèche, un sarment de l'an passé, afin d'obtenir un fruit de meilleure qualité en d'en assurer le rendement.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Culture_du_raisin_chasselas_de_Moissac</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Culture_du_raisin_chasselas_de_Moissac</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Les étapes de la culture</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Les traitements de la vigne</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La taille guyot simple ou double est une étape obligatoire de la culture du chasselas de Moissac AOP ou l'on renouvelle le bois de taille chaque année en ne gardant que la flèche et un courson (le porteur du serment de l'année suivante). Elle est effectuée avec un sécateur uniquement à la main. 
 Cette étape est effectuée pendant l'hiver ou les chasselatiers réparent le palissage. 
 Au printemps on élimine les rameaux infertiles (épamprage) et on éclaircie les bourgeons. L'été le rognage traditionnellement après la Saint-Jean, ou l'on supprime des rameaux en croissance et l'effeuillage, suppression de feuilles pour permettre la maturation des grappes sont les étapes les plus importantes.
-La récolte
-La récolte s'effectue en automne jusqu'à fin octobre, uniquement à la main, en trois étapes à l'aide de cagettes. Les grappes sont ensuite emmenées dans un atelier de conditionnement appelé le tradou, exposé à l'ouest pour permettre une visibilité optimale ou les grappes sont triées et conditionnées. Enfin 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Culture_du_raisin_chasselas_de_Moissac</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Culture_du_raisin_chasselas_de_Moissac</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Les étapes de la culture</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>La récolte</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La récolte s'effectue en automne jusqu'à fin octobre, uniquement à la main, en trois étapes à l'aide de cagettes. Les grappes sont ensuite emmenées dans un atelier de conditionnement appelé le tradou, exposé à l'ouest pour permettre une visibilité optimale ou les grappes sont triées et conditionnées. Enfin 
 </t>
         </is>
       </c>
